--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo por volumen" sheetId="1" r:id="rId1"/>
@@ -497,11 +497,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -527,7 +530,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>20.800976813898384</v>
+        <v>16.4603868474641</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -549,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>11295</v>
+        <v>5597</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -603,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>12.919861375235483</v>
+        <v>10.223842762403184</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -617,7 +620,7 @@
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G12">
         <f>G3/G10</f>
-        <v>1.6099999999821404</v>
+        <v>1.6099999999995085</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -665,19 +668,19 @@
       </c>
       <c r="G14">
         <f>G10^2</f>
-        <v>166.9228179553017</v>
+        <v>104.52696083034395</v>
       </c>
       <c r="H14">
         <f>(2*G3*TAN(G8)+G10)^2</f>
-        <v>1044.5288106423448</v>
+        <v>654.08326683550547</v>
       </c>
       <c r="I14">
         <f>(G14+H14+SQRT(G14*H14))*(G3/3)</f>
-        <v>11295.005549895153</v>
+        <v>5597.0008377049635</v>
       </c>
       <c r="J14">
         <f>G5-I14</f>
-        <v>-5.5498951533081708E-3</v>
+        <v>-8.3770496348734014E-4</v>
       </c>
     </row>
   </sheetData>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,15 +733,15 @@
       </c>
       <c r="D3">
         <f>-(4*A9*A5*A13)/(A11)</f>
-        <v>-0.25744443567067832</v>
+        <v>-0.25744443567178849</v>
       </c>
       <c r="E3">
         <f>1-EXP(D3)</f>
-        <v>0.22697542228760081</v>
+        <v>0.22697542228845902</v>
       </c>
       <c r="F3">
         <f>(A3*A7*A11)/(4*A5*A13)</f>
-        <v>4185.9467017661436</v>
+        <v>3312.4551144926168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -763,7 +766,7 @@
       </c>
       <c r="D6">
         <f>E3*F3</f>
-        <v>950.10702030676032</v>
+        <v>751.8458984235275</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -786,7 +789,7 @@
       </c>
       <c r="D8">
         <f>D6*A15^2</f>
-        <v>15.859454118871952</v>
+        <v>7.8588166774970825</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -795,14 +798,14 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'Cálculo por volumen'!G3/100</f>
-        <v>0.20800976813898384</v>
+        <v>0.16460386847464101</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="D9">
         <f>D8/9.81</f>
-        <v>1.6166619896913303</v>
+        <v>0.80110261748186362</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -819,14 +822,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>('Cálculo por volumen'!G10+2*'Cálculo por volumen'!G3*TAN('Cálculo por volumen'!G8))/100</f>
-        <v>0.3231917094608624</v>
+        <v>0.25575051648735836</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11">
         <f>A11</f>
-        <v>0.3231917094608624</v>
+        <v>0.25575051648735836</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,7 +853,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'Cálculo por volumen'!G10/100</f>
-        <v>0.12919861375235484</v>
+        <v>0.10223842762403183</v>
       </c>
     </row>
   </sheetData>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo por volumen" sheetId="1" r:id="rId1"/>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,45 +4,135 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo por volumen" sheetId="1" r:id="rId1"/>
     <sheet name="Cálculo de fuerza" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculo tolva romana" sheetId="3" r:id="rId3"/>
+    <sheet name="Cálculo contenedor" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo por volumen'!$G$3,'Cálculo por volumen'!$G$10</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Calculo tolva romana'!$A$30,'Calculo tolva romana'!$B$30</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Cálculo contenedor'!$A$11</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Cálculo por volumen'!$G$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Calculo tolva romana'!$A$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Calculo tolva romana'!$B$30</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Calculo tolva romana'!$B$37</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Calculo tolva romana'!$C$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Cálculo contenedor'!$C$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Calculo tolva romana'!$D$11</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Calculo tolva romana'!$G$11</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$21</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Cálculo por volumen'!$J$14</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Calculo tolva romana'!$B$34</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1.61</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -169,13 +259,97 @@
   </si>
   <si>
     <t>Razon aurea</t>
+  </si>
+  <si>
+    <t>Determinación de volumen de la tolva romana</t>
+  </si>
+  <si>
+    <t>En esta hoja se intentó determinar el tamaño de la tolva romana, sujeto a 7 ecuaciones contemplando el factor de seguridad.</t>
+  </si>
+  <si>
+    <t>Los cálculos previos están en la hoja del 1 de Octubre, consecutivo 5.</t>
+  </si>
+  <si>
+    <t>Ecuación 1</t>
+  </si>
+  <si>
+    <t>Ecuación 2</t>
+  </si>
+  <si>
+    <t>Ecuación 3</t>
+  </si>
+  <si>
+    <t>Factor de seguridad</t>
+  </si>
+  <si>
+    <t>Parámetros a encontrar</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Volumen cubo</t>
+  </si>
+  <si>
+    <t>Area Mayor</t>
+  </si>
+  <si>
+    <t>Area Menor</t>
+  </si>
+  <si>
+    <t>Volumen pirámide</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Determinación de volumen de los contenedores</t>
+  </si>
+  <si>
+    <t>En esta hoja se intentó determinar el tamaño de los contenedores para cada alimento sujeto a 3 ecuaciones contemplando el factor de seguridad.</t>
+  </si>
+  <si>
+    <t>Los cálculos previos están en la hoja del 1 de Octubre, consecutivo 6.</t>
+  </si>
+  <si>
+    <t>Concentrado</t>
+  </si>
+  <si>
+    <t>Volumen cilindro</t>
+  </si>
+  <si>
+    <t>CitroCon</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Levadura</t>
+  </si>
+  <si>
+    <t>Tolva general</t>
+  </si>
+  <si>
+    <t>Tolva mineral</t>
+  </si>
+  <si>
+    <t>Tolva Levadura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +361,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,9 +401,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +690,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -859,4 +1051,1032 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13939</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <f>A7*C7</f>
+        <v>18120.7</v>
+      </c>
+      <c r="G7">
+        <v>160.6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1.3</v>
+      </c>
+      <c r="K7">
+        <f>G7*I7</f>
+        <v>208.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>41.470457973748012</v>
+      </c>
+      <c r="B11">
+        <v>20.739221383930818</v>
+      </c>
+      <c r="C11">
+        <v>12.426939674491317</v>
+      </c>
+      <c r="D11">
+        <v>10.369610691965407</v>
+      </c>
+      <c r="G11">
+        <v>5.050985283431098</v>
+      </c>
+      <c r="H11">
+        <v>8.1825961591545759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>C11*C11*D11</f>
+        <v>1601.366843329474</v>
+      </c>
+      <c r="B14">
+        <f>(A11*A11)</f>
+        <v>1719.7988845524001</v>
+      </c>
+      <c r="C14">
+        <f>C11*C11</f>
+        <v>154.42882967344636</v>
+      </c>
+      <c r="D14">
+        <f>(B11/3)*(B14+C14+SQRT(B14*C14))</f>
+        <v>16519.333156619374</v>
+      </c>
+      <c r="G14">
+        <f>G11*G11*H11</f>
+        <v>208.75809447420013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <f>E7-D14-A14</f>
+        <v>5.1152937885490246E-8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <f>K7-J14-G14</f>
+        <v>2.1905525799866155E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <f>2*B11*TAN(35*PI()/180)+C11-A11</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <f>1.62*G11-H11</f>
+        <v>3.8031799931559362E-12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <f>2*D11-B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28.16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1.3</v>
+      </c>
+      <c r="E26">
+        <f>A26*C26</f>
+        <v>36.608000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2.8271785049016125</v>
+      </c>
+      <c r="B30">
+        <v>4.5800291779406122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A30*A30*B30</f>
+        <v>36.607890624964938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <f>E26-D33-A33</f>
+        <v>1.0937503506625035E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <f>1.62*A30-B30</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>E7/C7</f>
+        <v>253376.92307692306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <v>329390</v>
+      </c>
+      <c r="G7">
+        <f>K7/I7</f>
+        <v>163284.61538461538</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1.3</v>
+      </c>
+      <c r="K7">
+        <v>212270</v>
+      </c>
+      <c r="M7">
+        <v>704.7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1.3</v>
+      </c>
+      <c r="Q7">
+        <v>329390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>92.040498261833122</v>
+      </c>
+      <c r="B11">
+        <v>41.020249130916532</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>66.952783668144292</v>
+      </c>
+      <c r="H11">
+        <v>28.476391834072121</v>
+      </c>
+      <c r="I11">
+        <v>46.131754771196874</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>77.056553466484701</v>
+      </c>
+      <c r="N11">
+        <v>33.528276733242038</v>
+      </c>
+      <c r="O11">
+        <v>54.315808307852151</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>PI()/4*A11^2*C11</f>
+        <v>199603.91637180711</v>
+      </c>
+      <c r="B14">
+        <f>(A11*A11)</f>
+        <v>8471.4533202865059</v>
+      </c>
+      <c r="C14">
+        <f>D11*D11</f>
+        <v>100</v>
+      </c>
+      <c r="D14" s="4">
+        <f>(B11/3)*(B14+C14+SQRT(B14*C14))</f>
+        <v>129786.13076683834</v>
+      </c>
+      <c r="G14">
+        <f>PI()/4*G11^2*I11</f>
+        <v>162415.37249437472</v>
+      </c>
+      <c r="H14">
+        <f>(G11*G11)</f>
+        <v>4482.6752409133287</v>
+      </c>
+      <c r="I14">
+        <f>J11*J11</f>
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <f>(H11/3)*(H14+I14+SQRT(H14*I14))</f>
+        <v>49854.597609902732</v>
+      </c>
+      <c r="M14">
+        <f>PI()/4*M11^2*O11</f>
+        <v>253300.05778133572</v>
+      </c>
+      <c r="N14">
+        <f>(M11*M11)</f>
+        <v>5937.7124321332158</v>
+      </c>
+      <c r="O14">
+        <f>P11*P11</f>
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <f>(N11/3)*(N14+O14+SQRT(N14*O14))</f>
+        <v>76089.942582546646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <f>E7-D14-A14</f>
+        <v>-4.7138645430095494E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15">
+        <f>K7-J14-G14</f>
+        <v>2.9895722545916215E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <f>Q7-P14-M14</f>
+        <v>-3.6388236912898719E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <f>2*B11*TAN(45*PI()/180)+D11-A11</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <f>2*H11*TAN(45*PI()/180)+J11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18">
+        <f>2*N11*TAN(45*PI()/180)+P11-M11</f>
+        <v>-6.3948846218409017E-13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <f>B11+C11</f>
+        <v>71.02024913091654</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <f>1.62*H11-I11</f>
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21">
+        <f>1.62*N11-O11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>253380</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1.3</v>
+      </c>
+      <c r="E26">
+        <f>A26*C26</f>
+        <v>329394</v>
+      </c>
+      <c r="G26">
+        <v>704.7</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <f>G26*I26</f>
+        <v>916.11000000000013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>41.470457973748012</v>
+      </c>
+      <c r="B30">
+        <v>20.739221383930818</v>
+      </c>
+      <c r="C30">
+        <v>12.426939674491317</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>10.515515089146165</v>
+      </c>
+      <c r="H30">
+        <v>4.6525599437313581</v>
+      </c>
+      <c r="I30">
+        <v>7.5371471088447999</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>PI()/4*A30^2*C30</f>
+        <v>16785.401520839139</v>
+      </c>
+      <c r="B33">
+        <f>(A30*A30)</f>
+        <v>1719.7988845524001</v>
+      </c>
+      <c r="C33">
+        <f>D30*D30</f>
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <f>(B30/3)*(B33+C33+SQRT(B33*C33))</f>
+        <v>13146.459126651544</v>
+      </c>
+      <c r="G33" s="3">
+        <f>PI()/4*G30^2*I30</f>
+        <v>654.5728305554137</v>
+      </c>
+      <c r="H33" s="3">
+        <f>(G30*G30)</f>
+        <v>110.57605759006067</v>
+      </c>
+      <c r="I33" s="3">
+        <f>J30*J30</f>
+        <v>16</v>
+      </c>
+      <c r="J33" s="3">
+        <f>(H30/3)*(H33+I33+SQRT(H33*I33))</f>
+        <v>261.5329841816021</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <f>E26-D33-A33</f>
+        <v>299462.13935250934</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="3">
+        <f>K26-J33-G33</f>
+        <v>4.1852629842651368E-3</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <f>2*B30*TAN(35*PI()/180)+D30-A30</f>
+        <v>-8.4269396744912797</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="3">
+        <f>2*H30*TAN(35*PI()/180)+J30-G30</f>
+        <v>3.1441516057384433E-13</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <f>1.62*B30-C30</f>
+        <v>21.170598967476614</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="3">
+        <f>1.62*H30-I30</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+  </sheetData>
+  <scenarios current="2">
+    <scenario name="Adicional" count="3" user="Autor" comment="Creado por Autor el 10/1/2018">
+      <inputCells r="A11" val="48.374112909098"/>
+      <inputCells r="B11" val="31.6864004510389"/>
+      <inputCells r="C11" val="51.331968730683"/>
+    </scenario>
+    <scenario name="Mineral" count="3" user="Autor" comment="Creado por Autor el 10/1/2018">
+      <inputCells r="A11" val="29.5979086817967"/>
+      <inputCells r="B11" val="18.2788011303374"/>
+      <inputCells r="C11" val="29.6116578311466"/>
+    </scenario>
+    <scenario name="Levadura" count="3" user="Autor" comment="Creado por Autor el 10/1/2018">
+      <inputCells r="A11" val="10.5155150891462"/>
+      <inputCells r="B11" val="4.65255994373136"/>
+      <inputCells r="C11" val="7.5371471088448"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -7,132 +7,180 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Cálculo por volumen" sheetId="1" r:id="rId1"/>
-    <sheet name="Cálculo de fuerza" sheetId="2" r:id="rId2"/>
-    <sheet name="Calculo tolva romana" sheetId="3" r:id="rId3"/>
-    <sheet name="Cálculo contenedor" sheetId="4" r:id="rId4"/>
+    <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
+    <sheet name="Cálculo contenedor CC" sheetId="5" r:id="rId2"/>
+    <sheet name="Cálculo de fuerza" sheetId="2" r:id="rId3"/>
+    <sheet name="Calculo tolva romana" sheetId="3" r:id="rId4"/>
+    <sheet name="Cálculo contenedor" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo por volumen'!$G$3,'Cálculo por volumen'!$G$10</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'Calculo tolva romana'!$A$30,'Calculo tolva romana'!$B$30</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$I$15:$K$15</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$I$15:$K$15</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26,'Calculo tolva romana'!$U$26,'Calculo tolva romana'!$V$26</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Cálculo contenedor'!$A$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Cálculo por volumen'!$G$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Calculo tolva romana'!$A$30</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Calculo tolva romana'!$B$30</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$15</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Calculo tolva romana'!$B$37</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$18</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Calculo tolva romana'!$C$11</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Cálculo contenedor'!$C$11</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Calculo tolva romana'!$D$11</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Calculo tolva romana'!$G$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Cálculo contenedor'!$A$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$I$15:$L$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$I$15:$L$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26:$W$26</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$32</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Calculo tolva romana'!$U$26</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Calculo tolva romana'!$V$26</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Cálculo contenedor'!$C$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Calculo tolva romana'!$D$11</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Calculo tolva romana'!$G$11</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Cálculo contenedor'!$B$21</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Cálculo por volumen'!$J$14</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Calculo tolva romana'!$B$34</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$21</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$26</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$26</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$29</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1.61</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">15000</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -156,9 +204,6 @@
     <t>cm</t>
   </si>
   <si>
-    <t>Angulo deseado (horizontal)</t>
-  </si>
-  <si>
     <t>°</t>
   </si>
   <si>
@@ -343,6 +388,291 @@
   </si>
   <si>
     <t>Tolva Levadura</t>
+  </si>
+  <si>
+    <t>Angulo deseado (respecto a la vertical)</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>Hoja de excel requerida para calcular los tamaños de las tolvas contenedoras de alimento</t>
+  </si>
+  <si>
+    <t>Steve Mena Navarro</t>
+  </si>
+  <si>
+    <t>Se va a calcular el tamaño de la tolva, con las restricciones de:</t>
+  </si>
+  <si>
+    <t>El volumen debe ser el requerido por un factor de seguridad</t>
+  </si>
+  <si>
+    <t>La cantida de material debe minizarse.</t>
+  </si>
+  <si>
+    <t>Se va a variar la altura del cuadrado, y el lado del cuadrado</t>
+  </si>
+  <si>
+    <t>Parámetros</t>
+  </si>
+  <si>
+    <t>Angulo (°)</t>
+  </si>
+  <si>
+    <t>Ángulo (rad)</t>
+  </si>
+  <si>
+    <t>Apertura del tubo (cm)</t>
+  </si>
+  <si>
+    <t>Densidad del material (g/cm3)</t>
+  </si>
+  <si>
+    <t>Masa requerida (g)</t>
+  </si>
+  <si>
+    <t>El calculo se realizó con la densidad del material más pequeña encontrada.</t>
+  </si>
+  <si>
+    <t>Proceso de cálculo</t>
+  </si>
+  <si>
+    <t>Calcular volumen requerido</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>Volumen (cm3)</t>
+  </si>
+  <si>
+    <t>Calcular volumen con FS</t>
+  </si>
+  <si>
+    <t>Realizar todo el proceso de cálculo tolva contenedora</t>
+  </si>
+  <si>
+    <t>Volumen prisma</t>
+  </si>
+  <si>
+    <t>(a) Lado Mayor</t>
+  </si>
+  <si>
+    <t>(b) Altura del cono</t>
+  </si>
+  <si>
+    <t>© Altura del prisma</t>
+  </si>
+  <si>
+    <t>(d) Apertura de salida</t>
+  </si>
+  <si>
+    <t>Ecuación de volumen</t>
+  </si>
+  <si>
+    <t>Minimizar la cantidad de material</t>
+  </si>
+  <si>
+    <t>Mantener el ángulo deseado°</t>
+  </si>
+  <si>
+    <t>Cálculo de tolva romana versión 2</t>
+  </si>
+  <si>
+    <t>Esta parte de la hoja de calculo pretende es para hacer el diseño de la tolva con las modificaciones pertinentes.</t>
+  </si>
+  <si>
+    <t>Tolva que recoge todos los puntos</t>
+  </si>
+  <si>
+    <t>2. Debe alojar 4 celdas de carga</t>
+  </si>
+  <si>
+    <t>3. Debe minizar la cantidad de material necesario.</t>
+  </si>
+  <si>
+    <t>5. El actuador debe estar a 90°</t>
+  </si>
+  <si>
+    <t>6. Debe ser simétrico.</t>
+  </si>
+  <si>
+    <t>Espeficicaciones de diseño</t>
+  </si>
+  <si>
+    <t>7. La apertura debe ser de 10 cm. Para entrar en un tubo de 5 in sanitario.</t>
+  </si>
+  <si>
+    <t>Parámetros a determinar</t>
+  </si>
+  <si>
+    <t>d (mm)</t>
+  </si>
+  <si>
+    <t>b (cm)</t>
+  </si>
+  <si>
+    <t>c (cm)</t>
+  </si>
+  <si>
+    <t>a (cm)</t>
+  </si>
+  <si>
+    <t>Largo de la boca de ingreso</t>
+  </si>
+  <si>
+    <t>Largo de la boca de salida</t>
+  </si>
+  <si>
+    <t>Altura de la parte recta</t>
+  </si>
+  <si>
+    <t>Altura de la parte menor</t>
+  </si>
+  <si>
+    <t>Parámetros de diseño</t>
+  </si>
+  <si>
+    <t>Masa (g)</t>
+  </si>
+  <si>
+    <t>Masa concentrado (g)</t>
+  </si>
+  <si>
+    <t>Masa del concentrado a contener</t>
+  </si>
+  <si>
+    <t>Masa adicional (g)</t>
+  </si>
+  <si>
+    <t>Masa del adicional</t>
+  </si>
+  <si>
+    <t>Menor Densidad del adicional según Evelio</t>
+  </si>
+  <si>
+    <t>Menor Densidad del concentrado menos denso según los datos de DP</t>
+  </si>
+  <si>
+    <t>Densidad adic. (g/cm3)</t>
+  </si>
+  <si>
+    <t>Densidad conc. (g/cm3)</t>
+  </si>
+  <si>
+    <t>Masa total permitida (g)</t>
+  </si>
+  <si>
+    <t>Masa máxima que es capaz de soportar la tolva</t>
+  </si>
+  <si>
+    <t>Paso 1</t>
+  </si>
+  <si>
+    <t>Determinar el volumen máximo y la masa de cada uno de los alimentos guardando una proporción entre el adicional y el concentrado</t>
+  </si>
+  <si>
+    <t>Relación (con./adic.)</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Tabla con resultados</t>
+  </si>
+  <si>
+    <t>Conc.</t>
+  </si>
+  <si>
+    <t>Adic.</t>
+  </si>
+  <si>
+    <t>Densidad (g/cm3)</t>
+  </si>
+  <si>
+    <t>Se aplicó SOLVER PARA DETERMINAR LA MASA MÁXIMA DE CADA ALIMENTO.</t>
+  </si>
+  <si>
+    <t>Se fijó la masa total como ecuación y se fue variando la cantidad de concentrado</t>
+  </si>
+  <si>
+    <t>el volumen final se tomó como citerio de diseño</t>
+  </si>
+  <si>
+    <t>Paso 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Determinar los parámetros de diseño.</t>
+  </si>
+  <si>
+    <t>Determinar las ecuaciones de diseño</t>
+  </si>
+  <si>
+    <t>d (cm)</t>
+  </si>
+  <si>
+    <t>Angulo vertical (°)</t>
+  </si>
+  <si>
+    <t>Paso 2.1</t>
+  </si>
+  <si>
+    <t>Convertir el ángulo a radianes</t>
+  </si>
+  <si>
+    <t>Angulo vertidal (rad)</t>
+  </si>
+  <si>
+    <t>h (cm)</t>
+  </si>
+  <si>
+    <t>Altura de la parte cónica de la tolva</t>
+  </si>
+  <si>
+    <t>Area mayor (cm2)</t>
+  </si>
+  <si>
+    <t>Area Menor (cm2)</t>
+  </si>
+  <si>
+    <t>Volumen requerido (cm3)</t>
+  </si>
+  <si>
+    <t>Minimización de material (ecuación objetivo) (cm2)</t>
+  </si>
+  <si>
+    <t>Alimento por vaca (g/vaca)</t>
+  </si>
+  <si>
+    <t>Vacas totales</t>
+  </si>
+  <si>
+    <t>Vacas totales (vaca)</t>
+  </si>
+  <si>
+    <t>4. El ángulo de reposo del material debe ser de 60° con las paredes</t>
+  </si>
+  <si>
+    <t>1. La tolva tiene que sostener hasta 15 kg del alimento más ligero.</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>8. El factor de seguridad es de 1,5</t>
+  </si>
+  <si>
+    <t>Volumen de diseño</t>
   </si>
 </sst>
 </file>
@@ -401,12 +731,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,191 +1018,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9">
+        <f>B19/B18</f>
+        <v>681818.18181818177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <f>J9*B20</f>
+        <v>886363.63636363635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>127.69436939057958</v>
+      </c>
+      <c r="J15">
+        <v>99.588045184413559</v>
+      </c>
+      <c r="K15">
+        <v>17.978790520014051</v>
+      </c>
+      <c r="L15">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>(PI()/180)*B15</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>12.7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>0.44</v>
+      </c>
+      <c r="I18">
+        <f>(I15*I15)*K15</f>
+        <v>293159.49689194252</v>
+      </c>
+      <c r="J18">
+        <f>(I15*I15)</f>
+        <v>16305.851974057787</v>
+      </c>
+      <c r="K18">
+        <f>PI()*(L15/2)^2</f>
+        <v>126.67686977437442</v>
+      </c>
+      <c r="L18">
+        <f>(J15/3)*(J18+K18+SQRT(J18*K18))</f>
+        <v>593204.13947170554</v>
+      </c>
+      <c r="M18">
+        <f>I18+L18</f>
+        <v>886363.63636364811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <f>B22*B21</f>
+        <v>300000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>1.3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20">
+        <f>J11-M18</f>
+        <v>-1.1757947504520416E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23">
+        <f>2*J15*TAN(B16)+L15-I15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
+        <f>4*I15*K15+4/2*(I15+L15)*J15/COS(B16)</f>
+        <v>41472.285219549667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>16.4603868474641</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5597</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>5597</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>(PI()/180)*A38</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <f>(PI()/180)*F38</f>
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7.6684929431280304</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>10.223842762403184</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>F34/F41</f>
+        <v>1.6099999999995085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>16.4603868474641</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>5597</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>5597</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>(PI()/180)*B7</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="G8">
-        <f>(PI()/180)*G7</f>
-        <v>0.43633231299858238</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7.6684929431280304</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>10.223842762403184</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G12">
-        <f>G3/G10</f>
-        <v>1.6099999999995085</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="H44" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>B10^2</f>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>A41^2</f>
         <v>58.805784018804403</v>
       </c>
-      <c r="C14">
-        <f>(2*B3*TAN(B8)+B10)^2</f>
+      <c r="B45">
+        <f>(2*A34*TAN(A39)+A41)^2</f>
         <v>326.19241675857808</v>
       </c>
-      <c r="D14">
-        <f>(B14+C14+SQRT(B14*C14))*(B3/3)</f>
+      <c r="C45">
+        <f>(A45+B45+SQRT(A45*B45))*(A34/3)</f>
         <v>1570.4919034982213</v>
       </c>
-      <c r="E14">
-        <f>B5-D14</f>
+      <c r="D45">
+        <f>A36-C45</f>
         <v>4026.5080965017787</v>
       </c>
-      <c r="G14">
-        <f>G10^2</f>
+      <c r="F45">
+        <f>F41^2</f>
         <v>104.52696083034395</v>
       </c>
-      <c r="H14">
-        <f>(2*G3*TAN(G8)+G10)^2</f>
+      <c r="G45">
+        <f>(2*F34*TAN(F39)+F41)^2</f>
         <v>654.08326683550547</v>
       </c>
-      <c r="I14">
-        <f>(G14+H14+SQRT(G14*H14))*(G3/3)</f>
+      <c r="H45">
+        <f>(F45+G45+SQRT(F45*G45))*(F34/3)</f>
         <v>5597.0008377049635</v>
       </c>
-      <c r="J14">
-        <f>G5-I14</f>
+      <c r="I45">
+        <f>F36-H45</f>
         <v>-8.3770496348734014E-4</v>
       </c>
     </row>
@@ -883,37 +1486,501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9">
+        <f>B19/B18</f>
+        <v>338983.05084745766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <f>J9*B20</f>
+        <v>440677.96610169497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>101.18738727881232</v>
+      </c>
+      <c r="J15">
+        <v>81.031734349189861</v>
+      </c>
+      <c r="K15">
+        <v>14.106084565208093</v>
+      </c>
+      <c r="L15">
+        <f>B17</f>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>(PI()/180)*B15</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>7.62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I18">
+        <f>(I15*I15)*K15</f>
+        <v>144430.61073250891</v>
+      </c>
+      <c r="J18">
+        <f>(I15*I15)</f>
+        <v>10238.88734431235</v>
+      </c>
+      <c r="K18">
+        <f>PI()*(L15/2)^2</f>
+        <v>45.603673118774793</v>
+      </c>
+      <c r="L18">
+        <f>(J15/3)*(J18+K18+SQRT(J18*K18))</f>
+        <v>296247.00813880848</v>
+      </c>
+      <c r="M18">
+        <f>I18+L18</f>
+        <v>440677.61887131736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <f>B21*B22</f>
+        <v>100000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>1.3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20">
+        <f>J11-M18</f>
+        <v>0.34723037760704756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23">
+        <f>2*J15*TAN(B16)+L15-I15</f>
+        <v>1.6910917111090384E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
+        <f>4*I15*K15+4/2*(I15+L15)*J15/COS(B16)</f>
+        <v>26071.077256174623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>16.4603868474641</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5597</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>5597</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>(PI()/180)*A38</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <f>(PI()/180)*F38</f>
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7.6684929431280304</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>10.223842762403184</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>F34/F41</f>
+        <v>1.6099999999995085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>A41^2</f>
+        <v>58.805784018804403</v>
+      </c>
+      <c r="B45">
+        <f>(2*A34*TAN(A39)+A41)^2</f>
+        <v>326.19241675857808</v>
+      </c>
+      <c r="C45">
+        <f>(A45+B45+SQRT(A45*B45))*(A34/3)</f>
+        <v>1570.4919034982213</v>
+      </c>
+      <c r="D45">
+        <f>A36-C45</f>
+        <v>4026.5080965017787</v>
+      </c>
+      <c r="F45">
+        <f>F41^2</f>
+        <v>104.52696083034395</v>
+      </c>
+      <c r="G45">
+        <f>(2*F34*TAN(F39)+F41)^2</f>
+        <v>654.08326683550547</v>
+      </c>
+      <c r="H45">
+        <f>(F45+G45+SQRT(F45*G45))*(F34/3)</f>
+        <v>5597.0008377049635</v>
+      </c>
+      <c r="I45">
+        <f>F36-H45</f>
+        <v>-8.3770496348734014E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,7 +1988,7 @@
         <v>533</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <f>-(4*A9*A5*A13)/(A11)</f>
@@ -938,7 +2005,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,22 +2013,22 @@
         <v>0.25</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <f>E3*F3</f>
         <v>751.8458984235275</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,55 +2036,55 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <f>D6*A15^2</f>
         <v>7.8588166774970825</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>'Cálculo por volumen'!G3/100</f>
+        <f>'Cálculo contenedor Concentrado'!F34/100</f>
         <v>0.16460386847464101</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <f>D8/9.81</f>
         <v>0.80110261748186362</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>('Cálculo por volumen'!G10+2*'Cálculo por volumen'!G3*TAN('Cálculo por volumen'!G8))/100</f>
+        <f>('Cálculo contenedor Concentrado'!F41+2*'Cálculo contenedor Concentrado'!F34*TAN('Cálculo contenedor Concentrado'!F39))/100</f>
         <v>0.25575051648735836</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <f>A11</f>
@@ -1026,7 +2093,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,344 +2101,18 @@
         <v>0.4</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>'Cálculo por volumen'!G10/100</f>
+        <f>'Cálculo contenedor Concentrado'!F41/100</f>
         <v>0.10223842762403183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>13939</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1.3</v>
-      </c>
-      <c r="E7">
-        <f>A7*C7</f>
-        <v>18120.7</v>
-      </c>
-      <c r="G7">
-        <v>160.6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1.3</v>
-      </c>
-      <c r="K7">
-        <f>G7*I7</f>
-        <v>208.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>41.470457973748012</v>
-      </c>
-      <c r="B11">
-        <v>20.739221383930818</v>
-      </c>
-      <c r="C11">
-        <v>12.426939674491317</v>
-      </c>
-      <c r="D11">
-        <v>10.369610691965407</v>
-      </c>
-      <c r="G11">
-        <v>5.050985283431098</v>
-      </c>
-      <c r="H11">
-        <v>8.1825961591545759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>C11*C11*D11</f>
-        <v>1601.366843329474</v>
-      </c>
-      <c r="B14">
-        <f>(A11*A11)</f>
-        <v>1719.7988845524001</v>
-      </c>
-      <c r="C14">
-        <f>C11*C11</f>
-        <v>154.42882967344636</v>
-      </c>
-      <c r="D14">
-        <f>(B11/3)*(B14+C14+SQRT(B14*C14))</f>
-        <v>16519.333156619374</v>
-      </c>
-      <c r="G14">
-        <f>G11*G11*H11</f>
-        <v>208.75809447420013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15">
-        <f>E7-D14-A14</f>
-        <v>5.1152937885490246E-8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15">
-        <f>K7-J14-G14</f>
-        <v>2.1905525799866155E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18">
-        <f>2*B11*TAN(35*PI()/180)+C11-A11</f>
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18">
-        <f>1.62*G11-H11</f>
-        <v>3.8031799931559362E-12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21">
-        <f>2*D11-B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>28.16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1.3</v>
-      </c>
-      <c r="E26">
-        <f>A26*C26</f>
-        <v>36.608000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2.8271785049016125</v>
-      </c>
-      <c r="B30">
-        <v>4.5800291779406122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>A30*A30*B30</f>
-        <v>36.607890624964938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34">
-        <f>E26-D33-A33</f>
-        <v>1.0937503506625035E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <f>1.62*A30-B30</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1381,35 +2122,774 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="5">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13939</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <f>A7*C7</f>
+        <v>18120.7</v>
+      </c>
+      <c r="G7">
+        <v>160.6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1.3</v>
+      </c>
+      <c r="K7">
+        <f>G7*I7</f>
+        <v>208.78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" t="s">
+        <v>115</v>
+      </c>
+      <c r="U7" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" t="s">
+        <v>137</v>
+      </c>
+      <c r="T9" t="s">
+        <v>122</v>
+      </c>
+      <c r="U9" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" t="s">
+        <v>137</v>
+      </c>
+      <c r="T10" t="s">
+        <v>121</v>
+      </c>
+      <c r="U10" t="s">
+        <v>119</v>
+      </c>
+      <c r="V10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>41.470457973748012</v>
+      </c>
+      <c r="B11">
+        <v>20.739221383930818</v>
+      </c>
+      <c r="C11">
+        <v>12.426939674491317</v>
+      </c>
+      <c r="D11">
+        <v>10.369610691965407</v>
+      </c>
+      <c r="G11">
+        <v>5.050985283431098</v>
+      </c>
+      <c r="H11">
+        <v>8.1825961591545759</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" t="s">
+        <v>137</v>
+      </c>
+      <c r="T11" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" t="s">
+        <v>124</v>
+      </c>
+      <c r="V11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>145</v>
+      </c>
+      <c r="R12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" t="s">
+        <v>137</v>
+      </c>
+      <c r="T12" t="s">
+        <v>141</v>
+      </c>
+      <c r="V12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>C11*C11*D11</f>
+        <v>1601.366843329474</v>
+      </c>
+      <c r="B14">
+        <f>(A11*A11)</f>
+        <v>1719.7988845524001</v>
+      </c>
+      <c r="C14">
+        <f>C11*C11</f>
+        <v>154.42882967344636</v>
+      </c>
+      <c r="D14">
+        <f>(B11/3)*(B14+C14+SQRT(B14*C14))</f>
+        <v>16519.333156619374</v>
+      </c>
+      <c r="G14">
+        <f>G11*G11*H11</f>
+        <v>208.75809447420013</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <f>E7-D14-A14</f>
+        <v>5.1152937885490246E-8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <f>K7-J14-G14</f>
+        <v>2.1905525799866155E-2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" t="s">
+        <v>137</v>
+      </c>
+      <c r="R17" t="s">
+        <v>137</v>
+      </c>
+      <c r="S17" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <f>2*B11*TAN(35*PI()/180)+C11-A11</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <f>1.62*G11-H11</f>
+        <v>3.8031799931559362E-12</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" t="s">
+        <v>137</v>
+      </c>
+      <c r="R18" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" t="s">
+        <v>139</v>
+      </c>
+      <c r="U18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S19" t="s">
+        <v>142</v>
+      </c>
+      <c r="U19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" t="s">
+        <v>137</v>
+      </c>
+      <c r="S20" t="s">
+        <v>143</v>
+      </c>
+      <c r="U20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <f>2*D11-B11</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22">
+        <f>30*PI()/180</f>
+        <v>0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O23">
+        <f>6000/2000</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" t="s">
+        <v>129</v>
+      </c>
+      <c r="S25" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" t="s">
+        <v>106</v>
+      </c>
+      <c r="U25" t="s">
+        <v>107</v>
+      </c>
+      <c r="V25" t="s">
+        <v>140</v>
+      </c>
+      <c r="W25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28.16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1.3</v>
+      </c>
+      <c r="E26">
+        <f>A26*C26</f>
+        <v>36.608000000000004</v>
+      </c>
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26">
+        <v>51.341093386625936</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>6.8754592937845622</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <f>(S26-T26)/(2*TAN(T22))</f>
+        <v>35.802437093042911</v>
+      </c>
+      <c r="Y26">
+        <f>S26*S26</f>
+        <v>2635.9078701342455</v>
+      </c>
+      <c r="Z26">
+        <f>T26*T26</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27">
+        <v>11250.005999999999</v>
+      </c>
+      <c r="P27">
+        <v>0.44022</v>
+      </c>
+      <c r="Q27">
+        <f>O27/P27</f>
+        <v>25555.417745672617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+      <c r="O28">
+        <f>O27/O23</f>
+        <v>3750.002</v>
+      </c>
+      <c r="P28">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="Q28">
+        <f>O28/P28</f>
+        <v>12711.871186440678</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29">
+        <f>SUM(O27:O28)</f>
+        <v>15000.008</v>
+      </c>
+      <c r="Q29">
+        <f>SUM(Q27:Q28)</f>
+        <v>38267.288932113297</v>
+      </c>
+      <c r="S29">
+        <f>4*(T26*V26)+(4/2)*(S26+T26)*(W26/COS(T22))+4*S26*U26</f>
+        <v>6683.7901309810441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2.8271785049016125</v>
+      </c>
+      <c r="B30">
+        <v>4.5800291779406122</v>
+      </c>
+      <c r="N30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30">
+        <f>1.5*O29</f>
+        <v>22500.011999999999</v>
+      </c>
+      <c r="Q30">
+        <f>1.5*Q29</f>
+        <v>57400.933398169946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32">
+        <f>Q30-(Y26*U26+(Z26*V26)+(W26/3*(Y26+Z26+SQRT(Y26*Z26))))</f>
+        <v>1.2109739080187865E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A30*A30*B30</f>
+        <v>36.607890624964938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <f>E26-D33-A33</f>
+        <v>1.0937503506625035E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <f>1.62*A30-B30</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="5">
+        <v>43404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1417,28 +2897,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1483,51 +2963,51 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
       <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
         <v>47</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>48</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>49</v>
-      </c>
-      <c r="P10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1570,51 +3050,51 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
         <v>52</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>53</v>
       </c>
-      <c r="J13" t="s">
-        <v>54</v>
-      </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
         <v>52</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>53</v>
-      </c>
-      <c r="P13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1669,21 +3149,21 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <f>E7-D14-A14</f>
         <v>-4.7138645430095494E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <f>K7-J14-G14</f>
         <v>2.9895722545916215E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <f>Q7-P14-M14</f>
@@ -1692,32 +3172,32 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <f>2*B11*TAN(45*PI()/180)+D11-A11</f>
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18">
         <f>2*H11*TAN(45*PI()/180)+J11-G11</f>
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18">
         <f>2*N11*TAN(45*PI()/180)+P11-M11</f>
@@ -1726,32 +3206,32 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <f>B11+C11</f>
         <v>71.02024913091654</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21">
         <f>1.62*H11-I11</f>
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <f>1.62*N11-O11</f>
@@ -1760,10 +3240,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
         <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1771,21 +3251,21 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1826,10 +3306,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1838,28 +3318,28 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
       <c r="G29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1892,10 +3372,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1904,28 +3384,28 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1966,14 +3446,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <f>E26-D33-A33</f>
         <v>299462.13935250934</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="3">
         <f>K26-J33-G33</f>
@@ -1992,10 +3472,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2004,14 +3484,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <f>2*B30*TAN(35*PI()/180)+D30-A30</f>
         <v>-8.4269396744912797</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H37" s="3">
         <f>2*H30*TAN(35*PI()/180)+J30-G30</f>
@@ -2030,10 +3510,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2042,14 +3522,14 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <f>1.62*B30-C30</f>
         <v>21.170598967476614</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H40" s="3">
         <f>1.62*H30-I30</f>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,181 +4,253 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
     <sheet name="Cálculo contenedor CC" sheetId="5" r:id="rId2"/>
     <sheet name="Cálculo de fuerza" sheetId="2" r:id="rId3"/>
     <sheet name="Calculo tolva romana" sheetId="3" r:id="rId4"/>
-    <sheet name="Cálculo contenedor" sheetId="4" r:id="rId5"/>
+    <sheet name="Calculo de esfuerzos tolva" sheetId="8" r:id="rId5"/>
+    <sheet name="Cálculo contenedor" sheetId="4" r:id="rId6"/>
+    <sheet name="Dimensionado tolva mineral" sheetId="6" r:id="rId7"/>
+    <sheet name="Dimensionado tolva levadura" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$I$15:$K$15</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$I$15:$K$15</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$W$15:$X$15</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$W$15:$Y$15</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26,'Calculo tolva romana'!$U$26,'Calculo tolva romana'!$V$26</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$I$15:$K$15</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$I$15:$J$15</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Cálculo contenedor'!$A$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$I$15:$L$15</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$I$15:$L$15</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Cálculo contenedor'!$A$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$20</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26:$W$26</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$20</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$32</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$15</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$23</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Calculo tolva romana'!$U$26</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$18</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$23</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Calculo tolva romana'!$V$26</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Cálculo contenedor'!$C$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Cálculo contenedor'!$C$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Calculo tolva romana'!$D$11</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Calculo tolva romana'!$G$11</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">5</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Cálculo contenedor'!$B$21</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$26</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$J$26</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$21</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$26</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$26</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$29</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$30</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$30</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">15000</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -190,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="228">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -660,26 +732,227 @@
     <t>1. La tolva tiene que sostener hasta 15 kg del alimento más ligero.</t>
   </si>
   <si>
-    <t>Notas</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Observación</t>
-  </si>
-  <si>
     <t>8. El factor de seguridad es de 1,5</t>
   </si>
   <si>
     <t>Volumen de diseño</t>
+  </si>
+  <si>
+    <t>Se eligió utilizar tolvas con forma circular en acero inoxidable</t>
+  </si>
+  <si>
+    <t>Medido repecto a la vertical</t>
+  </si>
+  <si>
+    <t>Realizar todo el proceso de cálculo tolva contenedora en este caso será una tolva cónica</t>
+  </si>
+  <si>
+    <t>(a) Diámetro mayor</t>
+  </si>
+  <si>
+    <t>Volumen cono</t>
+  </si>
+  <si>
+    <t>Area total</t>
+  </si>
+  <si>
+    <t>Area cónica</t>
+  </si>
+  <si>
+    <t>Generatriz</t>
+  </si>
+  <si>
+    <t>Esta es una nueva versión con  unos requerimientos nuevos para el concetrado</t>
+  </si>
+  <si>
+    <t>Esta nueva versión se realizó con las nuevas especificaciones dadas</t>
+  </si>
+  <si>
+    <t>F.S.</t>
+  </si>
+  <si>
+    <t>Esto es 10 qq + 10%</t>
+  </si>
+  <si>
+    <t>Se realizón una revisión de los requerimientos para la tesis de graduación. Se adjunta la foto de la pizarra en el cual se tomó el diseño de esta tolva</t>
+  </si>
+  <si>
+    <t>Objetivo: Calcula espesor de pared para la tolva romana.</t>
+  </si>
+  <si>
+    <t>Calculo de esfuerzos en la tolva asumir concentrado como material, despreciar el resto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Mena Navarro </t>
+  </si>
+  <si>
+    <t>Comentario: Se utilizó el método de Jannsen para cálculo de esfuero en Parte A y C, mientras que el código europeo para el esfuero en B</t>
+  </si>
+  <si>
+    <t>Método Jannsen</t>
+  </si>
+  <si>
+    <t>http://www.dietmar-schulze.de/spanne.html</t>
+  </si>
+  <si>
+    <t>Norma Europea:</t>
+  </si>
+  <si>
+    <t>http://fgg-web.fgg.uni-lj.si/~/pmoze/esdep/master/wg15c/l0200.htm</t>
+  </si>
+  <si>
+    <t>Parte A:</t>
+  </si>
+  <si>
+    <t>Constantes del sistema</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>densidad</t>
+  </si>
+  <si>
+    <t>Se utilizó el promedio mayor de los datos de DT y MP, concentrado Lechera NPP</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Primero se diseñó por volumen y luego se verificó.</t>
+  </si>
+  <si>
+    <t>Perímetro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm </t>
+  </si>
+  <si>
+    <t>angulo fricción</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.1033.4612&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>Asumido</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>1 Calcular factores</t>
+  </si>
+  <si>
+    <t>Calcular exponencial</t>
+  </si>
+  <si>
+    <t>Calcular esfuerzo</t>
+  </si>
+  <si>
+    <t>Mpa</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>N/kg</t>
+  </si>
+  <si>
+    <t>Parte b</t>
+  </si>
+  <si>
+    <t>Cálculo de esfuerzo horizontal</t>
+  </si>
+  <si>
+    <t>Calculo esfuerzo cortante</t>
+  </si>
+  <si>
+    <t>Cb</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>pv0</t>
+  </si>
+  <si>
+    <t>Equivale a 30°</t>
+  </si>
+  <si>
+    <t>Calculo de presiones</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>Pperpendiular</t>
+  </si>
+  <si>
+    <t>Cortante</t>
+  </si>
+  <si>
+    <t>Cálculo de pandeo</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>Cálculo de b eq</t>
+  </si>
+  <si>
+    <t>b eq</t>
+  </si>
+  <si>
+    <t>Calculo de t</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Esfuerzo von Mises</t>
+  </si>
+  <si>
+    <t>Espesor</t>
+  </si>
+  <si>
+    <t>Esfuerzo de descarga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,13 +983,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -728,18 +1015,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -753,6 +1045,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="762000"/>
+          <a:ext cx="10058400" cy="5657850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="1295400"/>
+          <a:ext cx="1285875" cy="1460129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="2977" b="9079"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="3790950"/>
+          <a:ext cx="8039100" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="2977" b="9079"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10496550" y="2390775"/>
+          <a:ext cx="8039100" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,47 +1486,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="O4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43388</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4" s="5">
+        <v>43433</v>
+      </c>
+      <c r="P4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O5" s="5">
+        <v>43503</v>
+      </c>
+      <c r="P5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1068,8 +1568,17 @@
       <c r="I8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1083,8 +1592,21 @@
         <f>B19/B18</f>
         <v>681818.18181818177</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9">
+        <f>P19/P18</f>
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1097,8 +1619,20 @@
       <c r="I10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1112,21 +1646,43 @@
         <f>J9*B20</f>
         <v>886363.63636363635</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11">
+        <f>X9*P20</f>
+        <v>1380000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1142,8 +1698,23 @@
       <c r="L14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s">
+        <v>88</v>
+      </c>
+      <c r="X14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1162,8 +1733,27 @@
       <c r="L15">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="W15">
+        <v>148.12594604766292</v>
+      </c>
+      <c r="X15">
+        <v>119.48201413451379</v>
+      </c>
+      <c r="Y15">
+        <v>20.499638015148467</v>
+      </c>
+      <c r="Z15">
+        <f>P17</f>
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1174,8 +1764,18 @@
       <c r="I16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16">
+        <f>(PI()/180)*P15</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="W16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1200,8 +1800,32 @@
       <c r="M17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17">
+        <v>10.16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>87</v>
+      </c>
+      <c r="X17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1228,8 +1852,34 @@
         <f>I18+L18</f>
         <v>886363.63636364811</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18">
+        <v>0.44</v>
+      </c>
+      <c r="W18">
+        <f>(W15*W15)*Y15</f>
+        <v>449788.62337982439</v>
+      </c>
+      <c r="X18">
+        <f>(W15*W15)</f>
+        <v>21941.295892515147</v>
+      </c>
+      <c r="Y18">
+        <f>PI()*(Z15/2)^2</f>
+        <v>81.073196655599631</v>
+      </c>
+      <c r="Z18">
+        <f>(X15/3)*(X18+Y18+SQRT(X18*Y18))</f>
+        <v>930211.48203323979</v>
+      </c>
+      <c r="AA18">
+        <f>W18+Z18</f>
+        <v>1380000.1054130641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1240,8 +1890,20 @@
       <c r="I19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19">
+        <v>506000</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>169</v>
+      </c>
+      <c r="W19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1255,16 +1917,35 @@
         <f>J11-M18</f>
         <v>-1.1757947504520416E-8</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20">
+        <v>1.2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20">
+        <f>X11-AA18</f>
+        <v>-0.10541306412778795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
       <c r="B21">
         <v>6000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>153</v>
       </c>
@@ -1274,8 +1955,17 @@
       <c r="I22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="W22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>54</v>
       </c>
@@ -1283,13 +1973,23 @@
         <f>2*J15*TAN(B16)+L15-I15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23">
+        <f>2*X15*TAN(P16)+Z15-W15</f>
+        <v>9.7486463346285746E-11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>54</v>
       </c>
@@ -1297,8 +1997,15 @@
         <f>4*I15*K15+4/2*(I15+L15)*J15/COS(B16)</f>
         <v>41472.285219549667</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26">
+        <f>4*W15*Y15+4/2*(W15+Z15)*X15/COS(P16)</f>
+        <v>55822.253683575153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1481,52 +2188,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43388</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4" s="5">
+        <v>43433</v>
+      </c>
+      <c r="P4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1536,8 +2278,17 @@
       <c r="I8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1551,8 +2302,21 @@
         <f>B19/B18</f>
         <v>338983.05084745766</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9">
+        <f>P19/P18</f>
+        <v>467796.61016949156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1565,8 +2329,20 @@
       <c r="I10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1580,21 +2356,43 @@
         <f>J9*B20</f>
         <v>440677.96610169497</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X11">
+        <f>X9*P20</f>
+        <v>561355.93220338982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1610,8 +2408,23 @@
       <c r="L14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s">
+        <v>88</v>
+      </c>
+      <c r="X14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1631,8 +2444,27 @@
         <f>B17</f>
         <v>7.62</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="W15">
+        <v>125.13049797382367</v>
+      </c>
+      <c r="X15">
+        <v>101.76707645669109</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f>P17</f>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1643,8 +2475,18 @@
       <c r="I16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16">
+        <f>(PI()/180)*P15</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="W16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1666,8 +2508,29 @@
       <c r="M17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17">
+        <v>7.62</v>
+      </c>
+      <c r="W17" t="s">
+        <v>87</v>
+      </c>
+      <c r="X17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1694,8 +2557,34 @@
         <f>I18+L18</f>
         <v>440677.61887131736</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="W18">
+        <f>(W15*W15)*Y15</f>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f>(W15*W15)</f>
+        <v>15657.641523177088</v>
+      </c>
+      <c r="Y18">
+        <f>PI()*(Z15/2)^2</f>
+        <v>45.603673118774793</v>
+      </c>
+      <c r="Z18">
+        <f>(X15/3)*(X18+Y18+SQRT(X18*Y18))</f>
+        <v>561355.93220338796</v>
+      </c>
+      <c r="AA18">
+        <f>W18+Z18</f>
+        <v>561355.93220338796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1706,8 +2595,17 @@
       <c r="I19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19">
+        <v>138000</v>
+      </c>
+      <c r="W19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1721,16 +2619,35 @@
         <f>J11-M18</f>
         <v>0.34723037760704756</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20">
+        <v>1.2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20">
+        <f>X11-AA18</f>
+        <v>1.862645149230957E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
       <c r="B21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -1740,8 +2657,17 @@
       <c r="I22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="W22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>54</v>
       </c>
@@ -1749,13 +2675,23 @@
         <f>2*J15*TAN(B16)+L15-I15</f>
         <v>1.6910917111090384E-12</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23">
+        <f>2*X15*TAN(P16)+Z15-W15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>54</v>
       </c>
@@ -1763,8 +2699,15 @@
         <f>4*I15*K15+4/2*(I15+L15)*J15/COS(B16)</f>
         <v>26071.077256174623</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26">
+        <f>4*W15*Y15+4/2*(W15+Z15)*X15/COS(P16)</f>
+        <v>31199.154246354166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -2124,13 +3067,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView topLeftCell="O5" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -2469,7 +3415,7 @@
         <v>208.75809447420013</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2690,24 +3636,24 @@
         <v>84</v>
       </c>
       <c r="S26">
-        <v>51.341093386625936</v>
+        <v>58.6</v>
       </c>
       <c r="T26">
         <v>10</v>
       </c>
       <c r="U26">
-        <v>6.8754592937845622</v>
+        <v>7.8718644343080637</v>
       </c>
       <c r="V26">
         <v>5</v>
       </c>
       <c r="W26">
         <f>(S26-T26)/(2*TAN(T22))</f>
-        <v>35.802437093042911</v>
+        <v>42.088834623923724</v>
       </c>
       <c r="Y26">
         <f>S26*S26</f>
-        <v>2635.9078701342455</v>
+        <v>3433.96</v>
       </c>
       <c r="Z26">
         <f>T26*T26</f>
@@ -2765,13 +3711,17 @@
         <f>SUM(O27:O28)</f>
         <v>15000.008</v>
       </c>
+      <c r="P29">
+        <f>(P27*O23+P28)/4</f>
+        <v>0.40391499999999997</v>
+      </c>
       <c r="Q29">
         <f>SUM(Q27:Q28)</f>
         <v>38267.288932113297</v>
       </c>
       <c r="S29">
         <f>4*(T26*V26)+(4/2)*(S26+T26)*(W26/COS(T22))+4*S26*U26</f>
-        <v>6683.7901309810441</v>
+        <v>8713.0850234018108</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -2782,7 +3732,7 @@
         <v>4.5800291779406122</v>
       </c>
       <c r="N30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O30">
         <f>1.5*O29</f>
@@ -2797,6 +3747,12 @@
       <c r="A31" t="s">
         <v>41</v>
       </c>
+      <c r="N31" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31">
+        <v>1.5</v>
+      </c>
       <c r="S31" t="s">
         <v>149</v>
       </c>
@@ -2806,17 +3762,17 @@
         <v>50</v>
       </c>
       <c r="S32">
-        <f>Q30-(Y26*U26+(Z26*V26)+(W26/3*(Y26+Z26+SQRT(Y26*Z26))))</f>
-        <v>1.2109739080187865E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <f>Q30*O31-(Y26*U26+(Z26*V26)+(W26/3*(Y26+Z26+SQRT(Y26*Z26))))</f>
+        <v>768.29413869147538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>A30*A30*B30</f>
         <v>36.607890624964938</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -2825,23 +3781,12 @@
         <v>1.0937503506625035E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="N36" t="s">
-        <v>157</v>
-      </c>
-      <c r="O36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -2849,9 +3794,7 @@
         <f>1.62*A30-B30</f>
         <v>0</v>
       </c>
-      <c r="N37" s="5">
-        <v>43404</v>
-      </c>
+      <c r="N37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2861,10 +3804,433 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13">
+        <f>'Calculo tolva romana'!W26/COS('Calculo de esfuerzos tolva'!L14)/100</f>
+        <v>0.4861126456684014</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14">
+        <v>9.81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q14">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>529.86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15">
+        <f>A31/B19</f>
+        <v>398.75749863804339</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q15">
+        <f>'Calculo tolva romana'!S26/100</f>
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16">
+        <f>(58.6/100)^2</f>
+        <v>0.34339599999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16">
+        <f>'Calculo tolva romana'!W26/COS('Calculo de esfuerzos tolva'!L14)</f>
+        <v>48.611264566840141</v>
+      </c>
+      <c r="P16" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q16">
+        <f>200*1000^3</f>
+        <v>200000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17">
+        <f>4*58.6/100</f>
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="P17" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18">
+        <v>0.3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q19">
+        <f>Q13-(Q15)*(Q15-Q14)/(6*Q14+Q15)</f>
+        <v>0.24598111109841825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20">
+        <v>0.08</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20">
+        <f>L15*(L13*COS(L14)^2+1.5*SIN(L14)^2)</f>
+        <v>508.45738733106111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <f>L23*0.3</f>
+        <v>309.16290751886811</v>
+      </c>
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21">
+        <f>L13*L15*(COS(L14)^2)</f>
+        <v>358.71544250401558</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22">
+        <f>3*((B16/B17)*(B14*B15*B19)/(SQRT(B18)))*(SIN(L14)^2)</f>
+        <v>522.08563773183255</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>225</v>
+      </c>
+      <c r="P22">
+        <f>(Q17*PI()^2*Q16)/(12*(1-0.3^3)*N26)</f>
+        <v>72784293.430552989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23">
+        <f>(L20-L21)+L21+L22</f>
+        <v>1030.5430250628938</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <f>SQRT(L23^2+3*N20^2)</f>
+        <v>1161.3630081341237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24">
+        <f>A31*TAN(B18)</f>
+        <v>61.675074566203399</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>(B14*B15*B16)/(TAN(B18)*B17)</f>
+        <v>2461.7103487256813</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="P25">
+        <f>Q19/(SQRT(P22))</f>
+        <v>2.8832541361434868E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <f>N23*2</f>
+        <v>2322.7260162682473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>EXP(-(B19*TAN(B18)*B17*B20)/B16)</f>
+        <v>0.9190080386905668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A25*(1-A28)</f>
+        <v>199.37874931902169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>A31/1000000</f>
+        <v>1.9937874931902168E-4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,4 +4925,797 @@
   </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9">
+        <f>B19/B18</f>
+        <v>16064.257028112448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <f>J9*B20</f>
+        <v>19277.108433734938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="6">
+        <v>52.810124854227624</v>
+      </c>
+      <c r="J15" s="6">
+        <v>25.135062427113816</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>(PI()/180)*B15</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>2.54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="I18">
+        <f>J18*K15</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>(PI()*(I15^2)/4)</f>
+        <v>2190.4042319854357</v>
+      </c>
+      <c r="K18">
+        <f>PI()*(L15/2)^2</f>
+        <v>5.0670747909749769</v>
+      </c>
+      <c r="L18">
+        <f>(J15/3)*(J18+K18+SQRT(J18*K18))</f>
+        <v>19277.108433735058</v>
+      </c>
+      <c r="M18">
+        <f>I18+L18</f>
+        <v>19277.108433735058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>20000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>1.2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20">
+        <f>J11-M18</f>
+        <v>-1.2005330063402653E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23">
+        <f>2*J15*TAN(B16)+L15-I15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26">
+        <f>J15/COS(B16)</f>
+        <v>35.546346175518757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29">
+        <f>PI()*(0.5*I15+0.5*L15)*J26</f>
+        <v>3090.5334460622707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30">
+        <f>I15*PI()*K15+J29</f>
+        <v>3090.5334460622707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>16.4603868474641</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5597</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>5597</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>(PI()/180)*A38</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39">
+        <f>(PI()/180)*F38</f>
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7.6684929431280304</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>10.223842762403184</v>
+      </c>
+      <c r="G41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>F34/F41</f>
+        <v>1.6099999999995085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>A41^2</f>
+        <v>58.805784018804403</v>
+      </c>
+      <c r="B45">
+        <f>(2*A34*TAN(A39)+A41)^2</f>
+        <v>326.19241675857808</v>
+      </c>
+      <c r="C45">
+        <f>(A45+B45+SQRT(A45*B45))*(A34/3)</f>
+        <v>1570.4919034982213</v>
+      </c>
+      <c r="D45">
+        <f>A36-C45</f>
+        <v>4026.5080965017787</v>
+      </c>
+      <c r="F45">
+        <f>F41^2</f>
+        <v>104.52696083034395</v>
+      </c>
+      <c r="G45">
+        <f>(2*F34*TAN(F39)+F41)^2</f>
+        <v>654.08326683550547</v>
+      </c>
+      <c r="H45">
+        <f>(F45+G45+SQRT(F45*G45))*(F34/3)</f>
+        <v>5597.0008377049635</v>
+      </c>
+      <c r="I45">
+        <f>F36-H45</f>
+        <v>-8.3770496348734014E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9">
+        <f>B19/B18</f>
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <f>J9*B20</f>
+        <v>1380000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="6">
+        <v>160.80731145754854</v>
+      </c>
+      <c r="J15" s="6">
+        <v>130.46439873406226</v>
+      </c>
+      <c r="K15" s="6">
+        <v>21.538748049772003</v>
+      </c>
+      <c r="L15" s="6">
+        <f>B17</f>
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>(PI()/180)*B15</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>10.16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>0.44</v>
+      </c>
+      <c r="I18">
+        <f>J18*K15</f>
+        <v>437443.45145499363</v>
+      </c>
+      <c r="J18">
+        <f>(PI()*(I15^2)/4)</f>
+        <v>20309.604367168598</v>
+      </c>
+      <c r="K18">
+        <f>PI()*(L15/2)^2</f>
+        <v>81.073196655599631</v>
+      </c>
+      <c r="L18">
+        <f>(J15/3)*(J18+K18+SQRT(J18*K18))</f>
+        <v>942555.82951280545</v>
+      </c>
+      <c r="M18">
+        <f>I18+L18</f>
+        <v>1379999.280967799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>506000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>1.2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20">
+        <f>J11-M18</f>
+        <v>0.71903220098465681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23">
+        <f>2*J15*TAN(B16)+L15-I15</f>
+        <v>-1.5063505998114124E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>165</v>
+      </c>
+      <c r="J26">
+        <f>J15/COS(B16)</f>
+        <v>150.64731145754703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29">
+        <f>PI()*(0.5*I15+0.5*L15)*J26</f>
+        <v>40457.062341025594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30">
+        <f>I15*PI()*K15+J29</f>
+        <v>51338.24547853422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$W$15:$X$15</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$W$15:$Y$15</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26,'Calculo tolva romana'!$U$26,'Calculo tolva romana'!$V$26</definedName>
-    <definedName name="solver_adj" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$I$15:$K$15</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$I$15:$J$15</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$I$15:$J$15</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="229">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>Esfuerzo de descarga</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="O4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="O5" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="M17" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3806,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,8 +4232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,14 +4932,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" customWidth="1"/>
   </cols>
@@ -4963,7 +4967,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>81</v>
@@ -5059,16 +5063,16 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>159</v>
       </c>
       <c r="I15" s="6">
-        <v>52.810124854227624</v>
+        <v>43.975296439663964</v>
       </c>
       <c r="J15" s="6">
-        <v>25.135062427113816</v>
+        <v>35.884019330087902</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
@@ -5083,7 +5087,7 @@
       </c>
       <c r="B16">
         <f>(PI()/180)*B15</f>
-        <v>0.78539816339744828</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -5128,7 +5132,7 @@
       </c>
       <c r="J18">
         <f>(PI()*(I15^2)/4)</f>
-        <v>2190.4042319854357</v>
+        <v>1518.8239361184492</v>
       </c>
       <c r="K18">
         <f>PI()*(L15/2)^2</f>
@@ -5136,11 +5140,11 @@
       </c>
       <c r="L18">
         <f>(J15/3)*(J18+K18+SQRT(J18*K18))</f>
-        <v>19277.108433735058</v>
+        <v>19277.108433737867</v>
       </c>
       <c r="M18">
         <f>I18+L18</f>
-        <v>19277.108433735058</v>
+        <v>19277.108433737867</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5166,7 +5170,7 @@
       </c>
       <c r="J20">
         <f>J11-M18</f>
-        <v>-1.2005330063402653E-10</v>
+        <v>-2.9285729397088289E-9</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5208,7 +5212,7 @@
       </c>
       <c r="J26">
         <f>J15/COS(B16)</f>
-        <v>35.546346175518757</v>
+        <v>41.435296439663965</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5217,7 +5221,7 @@
       </c>
       <c r="J29">
         <f>PI()*(0.5*I15+0.5*L15)*J26</f>
-        <v>3090.5334460622707</v>
+        <v>3027.5137226549482</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5226,188 +5230,18 @@
       </c>
       <c r="J30">
         <f>I15*PI()*K15+J29</f>
-        <v>3090.5334460622707</v>
+        <v>3027.5137226549482</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>9</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>16.4603868474641</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5597</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>5597</v>
-      </c>
-      <c r="G36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f>(PI()/180)*A38</f>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39">
-        <f>(PI()/180)*F38</f>
-        <v>0.43633231299858238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>7.6684929431280304</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>10.223842762403184</v>
-      </c>
-      <c r="G41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F43">
-        <f>F34/F41</f>
-        <v>1.6099999999995085</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f>A41^2</f>
-        <v>58.805784018804403</v>
-      </c>
-      <c r="B45">
-        <f>(2*A34*TAN(A39)+A41)^2</f>
-        <v>326.19241675857808</v>
-      </c>
-      <c r="C45">
-        <f>(A45+B45+SQRT(A45*B45))*(A34/3)</f>
-        <v>1570.4919034982213</v>
-      </c>
-      <c r="D45">
-        <f>A36-C45</f>
-        <v>4026.5080965017787</v>
-      </c>
-      <c r="F45">
-        <f>F41^2</f>
-        <v>104.52696083034395</v>
-      </c>
-      <c r="G45">
-        <f>(2*F34*TAN(F39)+F41)^2</f>
-        <v>654.08326683550547</v>
-      </c>
-      <c r="H45">
-        <f>(F45+G45+SQRT(F45*G45))*(F34/3)</f>
-        <v>5597.0008377049635</v>
-      </c>
-      <c r="I45">
-        <f>F36-H45</f>
-        <v>-8.3770496348734014E-4</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5419,11 +5253,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5476,7 +5313,7 @@
       </c>
       <c r="J9">
         <f>B19/B18</f>
-        <v>1150000</v>
+        <v>704.22535211267609</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5505,7 +5342,7 @@
       </c>
       <c r="J11">
         <f>J9*B20</f>
-        <v>1380000</v>
+        <v>1408.4507042253522</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5549,17 +5386,17 @@
         <v>159</v>
       </c>
       <c r="I15" s="6">
-        <v>160.80731145754854</v>
+        <v>18.385069549951073</v>
       </c>
       <c r="J15" s="6">
-        <v>130.46439873406226</v>
+        <v>14.796104255681536</v>
       </c>
       <c r="K15" s="6">
-        <v>21.538748049772003</v>
+        <v>0</v>
       </c>
       <c r="L15" s="6">
         <f>B17</f>
-        <v>10.16</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5579,7 +5416,7 @@
         <v>77</v>
       </c>
       <c r="B17">
-        <v>10.16</v>
+        <v>1.3</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -5605,27 +5442,30 @@
         <v>78</v>
       </c>
       <c r="B18">
-        <v>0.44</v>
+        <v>0.71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
       </c>
       <c r="I18">
         <f>J18*K15</f>
-        <v>437443.45145499363</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <f>(PI()*(I15^2)/4)</f>
-        <v>20309.604367168598</v>
+        <v>265.47304767135967</v>
       </c>
       <c r="K18">
         <f>PI()*(L15/2)^2</f>
-        <v>81.073196655599631</v>
+        <v>1.3273228961416876</v>
       </c>
       <c r="L18">
         <f>(J15/3)*(J18+K18+SQRT(J18*K18))</f>
-        <v>942555.82951280545</v>
+        <v>1408.4502902540867</v>
       </c>
       <c r="M18">
         <f>I18+L18</f>
-        <v>1379999.280967799</v>
+        <v>1408.4502902540867</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5633,7 +5473,8 @@
         <v>79</v>
       </c>
       <c r="B19">
-        <v>506000</v>
+        <f>B21*B22</f>
+        <v>500</v>
       </c>
       <c r="I19" t="s">
         <v>92</v>
@@ -5644,14 +5485,14 @@
         <v>83</v>
       </c>
       <c r="B20">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>54</v>
       </c>
       <c r="J20">
         <f>J11-M18</f>
-        <v>0.71903220098465681</v>
+        <v>4.1397126551601104E-4</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5659,7 +5500,10 @@
         <v>151</v>
       </c>
       <c r="B21">
-        <v>6000</v>
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5679,7 +5523,7 @@
       </c>
       <c r="J23">
         <f>2*J15*TAN(B16)+L15-I15</f>
-        <v>-1.5063505998114124E-12</v>
+        <v>-6.7501559897209518E-14</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5693,7 +5537,7 @@
       </c>
       <c r="J26">
         <f>J15/COS(B16)</f>
-        <v>150.64731145754703</v>
+        <v>17.085069549951005</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -5702,7 +5546,7 @@
       </c>
       <c r="J29">
         <f>PI()*(0.5*I15+0.5*L15)*J26</f>
-        <v>40457.062341025594</v>
+        <v>528.29144955043387</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5711,7 +5555,7 @@
       </c>
       <c r="J30">
         <f>I15*PI()*K15+J29</f>
-        <v>51338.24547853422</v>
+        <v>528.29144955043387</v>
       </c>
     </row>
   </sheetData>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$W$15:$X$15</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$W$15:$Y$15</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$W$15:$Y$15</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26,'Calculo tolva romana'!$U$26,'Calculo tolva romana'!$V$26</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$I$15:$J$15</definedName>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1500,8 @@
     <col min="1" max="1" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0.85546875" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2199,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2303,7 +2304,7 @@
       </c>
       <c r="J9">
         <f>B19/B18</f>
-        <v>338983.05084745766</v>
+        <v>400000.00000000006</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="X9">
         <f>P19/P18</f>
-        <v>467796.61016949156</v>
+        <v>400000.00000000006</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2357,7 +2358,7 @@
       </c>
       <c r="J11">
         <f>J9*B20</f>
-        <v>440677.96610169497</v>
+        <v>520000.00000000012</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -2370,7 +2371,7 @@
       </c>
       <c r="X11">
         <f>X9*P20</f>
-        <v>561355.93220338982</v>
+        <v>480000.00000000006</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2454,13 +2455,13 @@
         <v>30</v>
       </c>
       <c r="W15">
-        <v>125.13049797382367</v>
+        <v>104.14290501508998</v>
       </c>
       <c r="X15">
-        <v>101.76707645669109</v>
+        <v>83.591287790140328</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>14.469266361528636</v>
       </c>
       <c r="Z15">
         <f>P17</f>
@@ -2538,7 +2539,7 @@
         <v>78</v>
       </c>
       <c r="B18">
-        <v>0.29499999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="I18">
         <f>(I15*I15)*K15</f>
@@ -2564,15 +2565,15 @@
         <v>78</v>
       </c>
       <c r="P18">
-        <v>0.29499999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="W18">
         <f>(W15*W15)*Y15</f>
-        <v>0</v>
+        <v>156929.96844675348</v>
       </c>
       <c r="X18">
         <f>(W15*W15)</f>
-        <v>15657.641523177088</v>
+        <v>10845.744664982054</v>
       </c>
       <c r="Y18">
         <f>PI()*(Z15/2)^2</f>
@@ -2580,11 +2581,11 @@
       </c>
       <c r="Z18">
         <f>(X15/3)*(X18+Y18+SQRT(X18*Y18))</f>
-        <v>561355.93220338796</v>
+        <v>323070.03155324777</v>
       </c>
       <c r="AA18">
         <f>W18+Z18</f>
-        <v>561355.93220338796</v>
+        <v>480000.00000000128</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -2592,8 +2593,7 @@
         <v>79</v>
       </c>
       <c r="B19">
-        <f>B21*B22</f>
-        <v>100000</v>
+        <v>138000</v>
       </c>
       <c r="I19" t="s">
         <v>92</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="J20">
         <f>J11-M18</f>
-        <v>0.34723037760704756</v>
+        <v>79322.381128682755</v>
       </c>
       <c r="O20" t="s">
         <v>83</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="X20">
         <f>X11-AA18</f>
-        <v>1.862645149230957E-9</v>
+        <v>-1.2223608791828156E-9</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="X26">
         <f>4*W15*Y15+4/2*(W15+Z15)*X15/COS(P16)</f>
-        <v>31199.154246354166</v>
+        <v>27602.846259270962</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3809,7 +3809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -2200,7 +2200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
@@ -3070,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="M17" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3639,24 +3639,24 @@
         <v>84</v>
       </c>
       <c r="S26">
-        <v>58.6</v>
+        <v>58.792234391009401</v>
       </c>
       <c r="T26">
         <v>10</v>
       </c>
       <c r="U26">
-        <v>7.8718644343080637</v>
+        <v>7.8768082220043922</v>
       </c>
       <c r="V26">
         <v>5</v>
       </c>
       <c r="W26">
         <f>(S26-T26)/(2*TAN(T22))</f>
-        <v>42.088834623923724</v>
+        <v>42.25531449001889</v>
       </c>
       <c r="Y26">
         <f>S26*S26</f>
-        <v>3433.96</v>
+        <v>3456.5268246873884</v>
       </c>
       <c r="Z26">
         <f>T26*T26</f>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="S29">
         <f>4*(T26*V26)+(4/2)*(S26+T26)*(W26/COS(T22))+4*S26*U26</f>
-        <v>8713.0850234018108</v>
+        <v>8765.4342703392249</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="S32">
         <f>Q30*O31-(Y26*U26+(Z26*V26)+(W26/3*(Y26+Z26+SQRT(Y26*Z26))))</f>
-        <v>768.29413869147538</v>
+        <v>1.8265059043187648E-4</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="Q13">
         <f>'Calculo tolva romana'!W26/COS('Calculo de esfuerzos tolva'!L14)/100</f>
-        <v>0.4861126456684014</v>
+        <v>0.48803543514169417</v>
       </c>
       <c r="R13" t="s">
         <v>22</v>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="Q15">
         <f>'Calculo tolva romana'!S26/100</f>
-        <v>0.58599999999999997</v>
+        <v>0.58792234391009401</v>
       </c>
       <c r="R15" t="s">
         <v>22</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="L16">
         <f>'Calculo tolva romana'!W26/COS('Calculo de esfuerzos tolva'!L14)</f>
-        <v>48.611264566840141</v>
+        <v>48.803543514169419</v>
       </c>
       <c r="P16" t="s">
         <v>224</v>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="Q19">
         <f>Q13-(Q15)*(Q15-Q14)/(6*Q14+Q15)</f>
-        <v>0.24598111109841825</v>
+        <v>0.24655462661214267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="P25">
         <f>Q19/(SQRT(P22))</f>
-        <v>2.8832541361434868E-5</v>
+        <v>2.8899765668606438E-5</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -3071,7 +3071,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$W$15:$Y$15</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$W$15:$Y$15</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26,'Calculo tolva romana'!$U$26,'Calculo tolva romana'!$V$26</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$27,'Calculo tolva romana'!$U$27,'Calculo tolva romana'!$V$27</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$I$15:$J$15</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$I$15:$J$15</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
@@ -56,27 +56,27 @@
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Cálculo contenedor'!$A$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$20</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$20</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$26:$W$26</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$27:$W$27</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$20</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$20</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$11</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$23</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$32</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$33</definedName>
     <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$23</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$23</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$15</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$23</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Calculo tolva romana'!$U$26</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Calculo tolva romana'!$U$27</definedName>
     <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$18</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$23</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Calculo tolva romana'!$V$26</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Calculo tolva romana'!$V$27</definedName>
     <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Cálculo contenedor'!$C$11</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Calculo tolva romana'!$D$11</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Calculo tolva romana'!$G$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Calculo tolva romana'!$D$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Calculo tolva romana'!$G$12</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -128,7 +128,7 @@
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$21</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$26</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$26</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$29</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$30</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$30</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$30</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="233">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -459,9 +459,6 @@
     <t>Tolva mineral</t>
   </si>
   <si>
-    <t>Tolva Levadura</t>
-  </si>
-  <si>
     <t>Angulo deseado (respecto a la vertical)</t>
   </si>
   <si>
@@ -949,6 +946,21 @@
   </si>
   <si>
     <t>g/cm3</t>
+  </si>
+  <si>
+    <t>Verificación realizada el 5/4/2019 por S Mena</t>
+  </si>
+  <si>
+    <t>Verificado por S Mena</t>
+  </si>
+  <si>
+    <t>Volumen</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Masa nueva</t>
   </si>
 </sst>
 </file>
@@ -1507,26 +1519,26 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1537,7 +1549,7 @@
         <v>43433</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1545,7 +1557,7 @@
         <v>43503</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1553,33 +1565,33 @@
         <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1587,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <f>B19/B18</f>
@@ -1600,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X9">
         <f>P19/P18</f>
@@ -1615,25 +1627,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V10">
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1641,10 +1653,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11">
         <f>J9*B20</f>
@@ -1654,10 +1666,10 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X11">
         <f>X9*P20</f>
@@ -1669,13 +1681,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V12">
         <v>3</v>
       </c>
       <c r="W12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -1688,39 +1700,39 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
         <v>88</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>89</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>90</v>
       </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s">
+        <v>87</v>
+      </c>
+      <c r="X14" t="s">
         <v>88</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>89</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>90</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1738,7 +1750,7 @@
         <v>12.7</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P15">
         <v>30</v>
@@ -1759,7 +1771,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <f>(PI()/180)*B15</f>
@@ -1769,7 +1781,7 @@
         <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P16">
         <f>(PI()/180)*P15</f>
@@ -1781,7 +1793,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>12.7</v>
@@ -1790,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
@@ -1805,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P17">
         <v>10.16</v>
@@ -1814,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X17" t="s">
         <v>51</v>
@@ -1831,7 +1843,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>0.44</v>
@@ -1857,7 +1869,7 @@
         <v>886363.63636364811</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18">
         <v>0.44</v>
@@ -1885,31 +1897,31 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <f>B22*B21</f>
         <v>300000</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P19">
         <v>506000</v>
       </c>
       <c r="Q19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>1.3</v>
@@ -1922,7 +1934,7 @@
         <v>-1.1757947504520416E-8</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P20">
         <v>1.2</v>
@@ -1937,13 +1949,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>6000</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P21">
         <v>6000</v>
@@ -1951,22 +1963,22 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P22">
         <v>50</v>
       </c>
       <c r="W22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -1987,10 +1999,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -2063,10 +2075,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2089,7 +2101,7 @@
         <v>0.52359877559829882</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39">
         <f>(PI()/180)*F38</f>
@@ -2225,26 +2237,26 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -2255,7 +2267,7 @@
         <v>43433</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -2263,33 +2275,33 @@
         <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -2297,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <f>B19/B18</f>
@@ -2310,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X9">
         <f>P19/P18</f>
@@ -2325,25 +2337,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V10">
         <v>2</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2351,10 +2363,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11">
         <f>J9*B20</f>
@@ -2364,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="P11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X11">
         <f>X9*P20</f>
@@ -2379,13 +2391,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V12">
         <v>3</v>
       </c>
       <c r="W12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -2398,39 +2410,39 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
         <v>88</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>89</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>90</v>
       </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s">
+        <v>87</v>
+      </c>
+      <c r="X14" t="s">
         <v>88</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>89</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>90</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -2449,7 +2461,7 @@
         <v>7.62</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P15">
         <v>30</v>
@@ -2470,7 +2482,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <f>(PI()/180)*B15</f>
@@ -2480,7 +2492,7 @@
         <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P16">
         <f>(PI()/180)*P15</f>
@@ -2492,13 +2504,13 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>7.62</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
@@ -2513,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P17">
         <v>7.62</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X17" t="s">
         <v>51</v>
@@ -2536,7 +2548,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>0.34499999999999997</v>
@@ -2562,7 +2574,7 @@
         <v>440677.61887131736</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P18">
         <v>0.34499999999999997</v>
@@ -2590,27 +2602,27 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>138000</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P19">
         <v>138000</v>
       </c>
       <c r="W19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>1.3</v>
@@ -2623,7 +2635,7 @@
         <v>79322.381128682755</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P20">
         <v>1.2</v>
@@ -2638,13 +2650,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>2000</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P21">
         <v>2000</v>
@@ -2652,22 +2664,22 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P22">
         <v>50</v>
       </c>
       <c r="W22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
@@ -2688,10 +2700,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -2764,10 +2776,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2790,7 +2802,7 @@
         <v>0.52359877559829882</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39">
         <f>(PI()/180)*F38</f>
@@ -3068,10 +3080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="N17" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,7 +3099,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -3095,7 +3107,7 @@
         <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -3106,192 +3118,159 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="O4" s="5">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>64</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13939</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1.3</v>
+      </c>
+      <c r="E8">
+        <f>A8*C8</f>
+        <v>18120.7</v>
+      </c>
+      <c r="G8">
+        <v>160.6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1.3</v>
+      </c>
+      <c r="K8">
+        <f>G8*I8</f>
+        <v>208.78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" t="s">
+        <v>108</v>
+      </c>
+      <c r="S8" t="s">
+        <v>136</v>
+      </c>
+      <c r="T8" t="s">
+        <v>114</v>
+      </c>
+      <c r="U8" t="s">
+        <v>115</v>
+      </c>
+      <c r="V8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>13939</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1.3</v>
-      </c>
-      <c r="E7">
-        <f>A7*C7</f>
-        <v>18120.7</v>
-      </c>
-      <c r="G7">
-        <v>160.6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1.3</v>
-      </c>
-      <c r="K7">
-        <f>G7*I7</f>
-        <v>208.78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="P9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>105</v>
+      </c>
+      <c r="R9" t="s">
         <v>109</v>
       </c>
-      <c r="S7" t="s">
-        <v>137</v>
-      </c>
-      <c r="T7" t="s">
-        <v>115</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="S9" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" t="s">
         <v>116</v>
       </c>
-      <c r="V7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
-      <c r="P8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" t="s">
-        <v>137</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U9" t="s">
         <v>117</v>
       </c>
-      <c r="U8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" t="s">
-        <v>137</v>
-      </c>
-      <c r="T9" t="s">
-        <v>122</v>
-      </c>
-      <c r="U9" t="s">
-        <v>120</v>
-      </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T10" t="s">
         <v>121</v>
@@ -3300,504 +3279,512 @@
         <v>119</v>
       </c>
       <c r="V10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" t="s">
+        <v>111</v>
+      </c>
+      <c r="S11" t="s">
+        <v>136</v>
+      </c>
+      <c r="T11" t="s">
+        <v>120</v>
+      </c>
+      <c r="U11" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>41.470457973748012</v>
+      </c>
+      <c r="B12">
+        <v>20.739221383930818</v>
+      </c>
+      <c r="C12">
+        <v>12.426939674491317</v>
+      </c>
+      <c r="D12">
+        <v>10.369610691965407</v>
+      </c>
+      <c r="G12">
+        <v>5.050985283431098</v>
+      </c>
+      <c r="H12">
+        <v>8.1825961591545759</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" t="s">
+        <v>136</v>
+      </c>
+      <c r="S12" t="s">
+        <v>136</v>
+      </c>
+      <c r="T12" t="s">
+        <v>122</v>
+      </c>
+      <c r="U12" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" t="s">
+        <v>136</v>
+      </c>
+      <c r="T13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>136</v>
+      </c>
+      <c r="T14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>C12*C12*D12</f>
+        <v>1601.366843329474</v>
+      </c>
+      <c r="B15">
+        <f>(A12*A12)</f>
+        <v>1719.7988845524001</v>
+      </c>
+      <c r="C15">
+        <f>C12*C12</f>
+        <v>154.42882967344636</v>
+      </c>
+      <c r="D15">
+        <f>(B12/3)*(B15+C15+SQRT(B15*C15))</f>
+        <v>16519.333156619374</v>
+      </c>
+      <c r="G15">
+        <f>G12*G12*H12</f>
+        <v>208.75809447420013</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <f>E8-D15-A15</f>
+        <v>5.1152937885490246E-8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <f>K8-J15-G15</f>
+        <v>2.1905525799866155E-2</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>41.470457973748012</v>
-      </c>
-      <c r="B11">
-        <v>20.739221383930818</v>
-      </c>
-      <c r="C11">
-        <v>12.426939674491317</v>
-      </c>
-      <c r="D11">
-        <v>10.369610691965407</v>
-      </c>
-      <c r="G11">
-        <v>5.050985283431098</v>
-      </c>
-      <c r="H11">
-        <v>8.1825961591545759</v>
-      </c>
-      <c r="N11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P11" t="s">
-        <v>137</v>
-      </c>
-      <c r="S11" t="s">
-        <v>137</v>
-      </c>
-      <c r="T11" t="s">
-        <v>123</v>
-      </c>
-      <c r="U11" t="s">
-        <v>124</v>
-      </c>
-      <c r="V11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>145</v>
-      </c>
-      <c r="R12" t="s">
-        <v>146</v>
-      </c>
-      <c r="S12" t="s">
-        <v>137</v>
-      </c>
-      <c r="T12" t="s">
+      <c r="U18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <f>2*B12*TAN(35*PI()/180)+C12-A12</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <f>1.62*G12-H12</f>
+        <v>3.8031799931559362E-12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" t="s">
+        <v>136</v>
+      </c>
+      <c r="S19" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" t="s">
+        <v>136</v>
+      </c>
+      <c r="R20" t="s">
+        <v>136</v>
+      </c>
+      <c r="S20" t="s">
         <v>141</v>
       </c>
-      <c r="V12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>C11*C11*D11</f>
-        <v>1601.366843329474</v>
-      </c>
-      <c r="B14">
-        <f>(A11*A11)</f>
-        <v>1719.7988845524001</v>
-      </c>
-      <c r="C14">
-        <f>C11*C11</f>
-        <v>154.42882967344636</v>
-      </c>
-      <c r="D14">
-        <f>(B11/3)*(B14+C14+SQRT(B14*C14))</f>
-        <v>16519.333156619374</v>
-      </c>
-      <c r="G14">
-        <f>G11*G11*H11</f>
-        <v>208.75809447420013</v>
-      </c>
-      <c r="N14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="U20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" t="s">
+        <v>142</v>
+      </c>
+      <c r="U21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B15">
-        <f>E7-D14-A14</f>
-        <v>5.1152937885490246E-8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15">
-        <f>K7-J14-G14</f>
-        <v>2.1905525799866155E-2</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="N16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" t="s">
-        <v>137</v>
-      </c>
-      <c r="R17" t="s">
-        <v>137</v>
-      </c>
-      <c r="S17" t="s">
-        <v>138</v>
-      </c>
-      <c r="U17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <f>2*B11*TAN(35*PI()/180)+C11-A11</f>
+      <c r="B22">
+        <f>2*D12-B12</f>
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18">
-        <f>1.62*G11-H11</f>
-        <v>3.8031799931559362E-12</v>
-      </c>
-      <c r="N18" t="s">
-        <v>133</v>
-      </c>
-      <c r="P18" t="s">
-        <v>137</v>
-      </c>
-      <c r="R18" t="s">
-        <v>137</v>
-      </c>
-      <c r="S18" t="s">
-        <v>139</v>
-      </c>
-      <c r="U18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N19" t="s">
-        <v>134</v>
-      </c>
-      <c r="P19" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" t="s">
-        <v>137</v>
-      </c>
-      <c r="S19" t="s">
-        <v>142</v>
-      </c>
-      <c r="U19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" t="s">
-        <v>137</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="S22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S23" t="s">
         <v>143</v>
       </c>
-      <c r="U20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21">
-        <f>2*D11-B11</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S22" t="s">
-        <v>144</v>
-      </c>
-      <c r="T22">
+      <c r="T23">
         <f>30*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N23" t="s">
-        <v>127</v>
-      </c>
-      <c r="O23">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24">
         <f>6000/2000</f>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="S24" t="s">
-        <v>74</v>
-      </c>
-    </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="S25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>128</v>
+      </c>
+      <c r="S26" t="s">
+        <v>107</v>
+      </c>
+      <c r="T26" t="s">
+        <v>105</v>
+      </c>
+      <c r="U26" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" t="s">
+        <v>139</v>
+      </c>
+      <c r="W26" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27">
+        <v>60</v>
+      </c>
+      <c r="T27">
         <v>10</v>
       </c>
-      <c r="N25" t="s">
+      <c r="U27">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
+        <f>(S27-T27)/(2*TAN(T23))</f>
+        <v>43.301270189221938</v>
+      </c>
+      <c r="Y27">
+        <f>S27*S27</f>
+        <v>3600</v>
+      </c>
+      <c r="Z27">
+        <f>T27*T27</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
         <v>129</v>
       </c>
-      <c r="S25" t="s">
-        <v>108</v>
-      </c>
-      <c r="T25" t="s">
-        <v>106</v>
-      </c>
-      <c r="U25" t="s">
-        <v>107</v>
-      </c>
-      <c r="V25" t="s">
-        <v>140</v>
-      </c>
-      <c r="W25" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>28.16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1.3</v>
-      </c>
-      <c r="E26">
-        <f>A26*C26</f>
-        <v>36.608000000000004</v>
-      </c>
-      <c r="O26" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>84</v>
-      </c>
-      <c r="S26">
-        <v>58.792234391009401</v>
-      </c>
-      <c r="T26">
-        <v>10</v>
-      </c>
-      <c r="U26">
-        <v>7.8768082220043922</v>
-      </c>
-      <c r="V26">
-        <v>5</v>
-      </c>
-      <c r="W26">
-        <f>(S26-T26)/(2*TAN(T22))</f>
-        <v>42.25531449001889</v>
-      </c>
-      <c r="Y26">
-        <f>S26*S26</f>
-        <v>3456.5268246873884</v>
-      </c>
-      <c r="Z26">
-        <f>T26*T26</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N27" t="s">
-        <v>130</v>
-      </c>
-      <c r="O27">
+      <c r="O28">
         <v>11250.005999999999</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <v>0.44022</v>
-      </c>
-      <c r="Q27">
-        <f>O27/P27</f>
-        <v>25555.417745672617</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" t="s">
-        <v>131</v>
-      </c>
-      <c r="O28">
-        <f>O27/O23</f>
-        <v>3750.002</v>
-      </c>
-      <c r="P28">
-        <v>0.29499999999999998</v>
       </c>
       <c r="Q28">
         <f>O28/P28</f>
+        <v>25555.417745672617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>130</v>
+      </c>
+      <c r="O29">
+        <f>O28/O24</f>
+        <v>3750.002</v>
+      </c>
+      <c r="P29">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="Q29">
+        <f>O29/P29</f>
         <v>12711.871186440678</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="S29" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
         <v>31</v>
       </c>
-      <c r="O29">
-        <f>SUM(O27:O28)</f>
+      <c r="O30">
+        <f>SUM(O28:O29)</f>
         <v>15000.008</v>
       </c>
-      <c r="P29">
-        <f>(P27*O23+P28)/4</f>
-        <v>0.40391499999999997</v>
-      </c>
-      <c r="Q29">
-        <f>SUM(Q27:Q28)</f>
+      <c r="P30">
+        <f>4*(P28*P29)/(P28+3*P29)</f>
+        <v>0.3919798976773668</v>
+      </c>
+      <c r="Q30">
+        <f>SUM(Q28:Q29)</f>
         <v>38267.288932113297</v>
       </c>
-      <c r="S29">
-        <f>4*(T26*V26)+(4/2)*(S26+T26)*(W26/COS(T22))+4*S26*U26</f>
-        <v>8765.4342703392249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2.8271785049016125</v>
-      </c>
-      <c r="B30">
-        <v>4.5800291779406122</v>
-      </c>
-      <c r="N30" t="s">
-        <v>157</v>
-      </c>
-      <c r="O30">
-        <f>1.5*O29</f>
+      <c r="S30">
+        <f>4*(T27*V27)+(4/2)*(S27+T27)*(W27/COS(T23))+4*S27*U27</f>
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O31">
+        <f>1.5*O30</f>
         <v>22500.011999999999</v>
       </c>
-      <c r="Q30">
-        <f>1.5*Q29</f>
+      <c r="Q31">
+        <f>1.5*Q30</f>
         <v>57400.933398169946</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" t="s">
-        <v>168</v>
-      </c>
-      <c r="O31">
+      <c r="S31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>167</v>
+      </c>
+      <c r="O32">
         <v>1.5</v>
       </c>
-      <c r="S31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="S32">
-        <f>Q30*O31-(Y26*U26+(Z26*V26)+(W26/3*(Y26+Z26+SQRT(Y26*Z26))))</f>
-        <v>1.8265059043187648E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f>A30*A30*B30</f>
-        <v>36.607890624964938</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34">
-        <f>E26-D33-A33</f>
-        <v>1.0937503506625035E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37">
-        <f>1.62*A30-B30</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="5"/>
+      <c r="S32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f>Q31*O32-(Y27*U27+(Z27*V27)+(W27/3*(Y27+Z27+SQRT(Y27*Z27))))</f>
+        <v>-5263.7538406298554</v>
+      </c>
+    </row>
+    <row r="34" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q34">
+        <f>Q31-S33</f>
+        <v>62664.687238799801</v>
+      </c>
+    </row>
+    <row r="35" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q35">
+        <f>-S33/Q31*100</f>
+        <v>9.1701537396910595</v>
+      </c>
+    </row>
+    <row r="37" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q37">
+        <f>Q34*P30</f>
+        <v>24563.29769184894</v>
+      </c>
+    </row>
+    <row r="38" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N38" s="5"/>
+      <c r="P38" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q38">
+        <f>(Q37-O31)/O31*100</f>
+        <v>9.1701537396910791</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3820,17 +3807,17 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3840,69 +3827,69 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
         <v>175</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
         <v>182</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>183</v>
       </c>
-      <c r="C13" t="s">
-        <v>184</v>
-      </c>
       <c r="K13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L13">
         <v>1.2</v>
       </c>
       <c r="P13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q13">
-        <f>'Calculo tolva romana'!W26/COS('Calculo de esfuerzos tolva'!L14)/100</f>
-        <v>0.48803543514169417</v>
+        <f>'Calculo tolva romana'!W27/COS('Calculo de esfuerzos tolva'!L14)/100</f>
+        <v>0.50011589060535122</v>
       </c>
       <c r="R13" t="s">
         <v>22</v>
@@ -3910,28 +3897,28 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>9.81</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L14">
         <v>0.52400000000000002</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <f>0.1</f>
@@ -3943,7 +3930,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15">
         <v>529.86</v>
@@ -3952,10 +3939,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L15">
         <f>A31/B19</f>
@@ -3965,11 +3952,11 @@
         <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q15">
-        <f>'Calculo tolva romana'!S26/100</f>
-        <v>0.58792234391009401</v>
+        <f>'Calculo tolva romana'!S27/100</f>
+        <v>0.6</v>
       </c>
       <c r="R15" t="s">
         <v>22</v>
@@ -3977,27 +3964,27 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16">
         <f>(58.6/100)^2</f>
         <v>0.34339599999999998</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L16">
-        <f>'Calculo tolva romana'!W26/COS('Calculo de esfuerzos tolva'!L14)</f>
-        <v>48.803543514169419</v>
+        <f>'Calculo tolva romana'!W27/COS('Calculo de esfuerzos tolva'!L14)</f>
+        <v>50.011589060535123</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <f>200*1000^3</f>
@@ -4006,17 +3993,17 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17">
         <f>4*58.6/100</f>
         <v>2.3439999999999999</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4024,48 +4011,48 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18">
         <v>0.3</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19">
         <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <f>Q13-(Q15)*(Q15-Q14)/(6*Q14+Q15)</f>
-        <v>0.24655462661214267</v>
+        <v>0.25011589060535128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20">
         <v>0.08</v>
@@ -4074,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L20">
         <f>L15*(L13*COS(L14)^2+1.5*SIN(L14)^2)</f>
@@ -4093,7 +4080,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L21">
         <f>L13*L15*(COS(L14)^2)</f>
@@ -4103,12 +4090,12 @@
         <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L22">
         <f>3*((B16/B17)*(B14*B15*B19)/(SQRT(B18)))*(SIN(L14)^2)</f>
@@ -4118,7 +4105,7 @@
         <v>35</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P22">
         <f>(Q17*PI()^2*Q16)/(12*(1-0.3^3)*N26)</f>
@@ -4127,13 +4114,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L23">
         <f>(L20-L21)+L21+L22</f>
@@ -4149,7 +4136,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D24">
         <f>A31*TAN(B18)</f>
@@ -4159,7 +4146,7 @@
         <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -4171,11 +4158,11 @@
         <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P25">
         <f>Q19/(SQRT(P22))</f>
-        <v>2.8899765668606438E-5</v>
+        <v>2.9317197279207196E-5</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -4186,7 +4173,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -4197,7 +4184,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -4215,7 +4202,7 @@
         <v>1.9937874931902168E-4</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4947,17 +4934,17 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4970,18 +4957,18 @@
         <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4989,10 +4976,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <f>B19/B18</f>
@@ -5004,13 +4991,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5018,10 +5005,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11">
         <f>J9*B20</f>
@@ -5033,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5043,30 +5030,30 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
         <v>89</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" s="6">
         <v>43.975296439663964</v>
@@ -5083,7 +5070,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <f>(PI()/180)*B15</f>
@@ -5095,7 +5082,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>2.54</v>
@@ -5104,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
@@ -5113,7 +5100,7 @@
         <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
@@ -5121,7 +5108,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>1.2450000000000001</v>
@@ -5149,18 +5136,18 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>20000</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>1.2</v>
@@ -5175,7 +5162,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -5183,13 +5170,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5203,12 +5190,12 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26">
         <f>J15/COS(B16)</f>
@@ -5217,7 +5204,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J29">
         <f>PI()*(0.5*I15+0.5*L15)*J26</f>
@@ -5226,7 +5213,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J30">
         <f>I15*PI()*K15+J29</f>
@@ -5264,17 +5251,17 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5287,18 +5274,18 @@
         <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5306,10 +5293,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <f>B19/B18</f>
@@ -5321,13 +5308,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5335,10 +5322,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11">
         <f>J9*B20</f>
@@ -5350,7 +5337,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5360,30 +5347,30 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
         <v>89</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" s="6">
         <v>18.385069549951073</v>
@@ -5401,7 +5388,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <f>(PI()/180)*B15</f>
@@ -5413,7 +5400,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>1.3</v>
@@ -5422,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
@@ -5431,7 +5418,7 @@
         <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
@@ -5439,13 +5426,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>0.71</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I18">
         <f>J18*K15</f>
@@ -5470,19 +5457,19 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <f>B21*B22</f>
         <v>500</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -5497,24 +5484,24 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,12 +5515,12 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J26">
         <f>J15/COS(B16)</f>
@@ -5542,7 +5529,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J29">
         <f>PI()*(0.5*I15+0.5*L15)*J26</f>
@@ -5551,7 +5538,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J30">
         <f>I15*PI()*K15+J29</f>

--- a/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
+++ b/Solución/Diseño Mecánico/Esclusas/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -3082,7 +3082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N17" workbookViewId="0">
+    <sheetView topLeftCell="N17" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
@@ -3796,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
